--- a/biology/Botanique/Allium_aschersonianum/Allium_aschersonianum.xlsx
+++ b/biology/Botanique/Allium_aschersonianum/Allium_aschersonianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium aschersonianum est une espèce de plante herbacée vivace de la famille des Amaryllidacées, répartie dans le sud de la Turquie, Israël, et le nord-est de la Libye.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un géophyte bulbeux de 30-70 cm de haut, avec de grandes ombelles de fleurs rouge-violacés pourpres[1].
-Allium aschersonianum a été décrit en premier lieu par Barbey in C.Barbey-Boissier &amp; W.Barbey, Herbor. Levant: 163 en 1882[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un géophyte bulbeux de 30-70 cm de haut, avec de grandes ombelles de fleurs rouge-violacés pourpres.
+Allium aschersonianum a été décrit en premier lieu par Barbey in C.Barbey-Boissier &amp; W.Barbey, Herbor. Levant: 163 en 1882.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium aschersonianum pousse dans les sols sableux du nord du Néguev, dans les pentes rocheuses des hauts plateaux du Néguev et dans les sols marneux de la vallée du Jourdain[1].
-Elle est proche d'Allium tel-avivense qui est plus court, avec des têtes florales plus grandes et des fleurs roses plus pâles[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium aschersonianum pousse dans les sols sableux du nord du Néguev, dans les pentes rocheuses des hauts plateaux du Néguev et dans les sols marneux de la vallée du Jourdain.
+Elle est proche d'Allium tel-avivense qui est plus court, avec des têtes florales plus grandes et des fleurs roses plus pâles
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante ornementale, elle est cultivée comme fleur coupée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante ornementale, elle est cultivée comme fleur coupée.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>References</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b et c Flora of Israel and adjacent areas
